--- a/activite.xlsx
+++ b/activite.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Desktop\GIT\Yeni klasör\bilative.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Desktop\bilative.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E83560D-1FA8-406E-8B69-A31C760D024A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D810E-D140-4D59-9474-4C1AA8931E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71733CB6-199B-45F1-9C5A-449DF013E0E3}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{71733CB6-199B-45F1-9C5A-449DF013E0E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FEB2D8-7D0D-4CF5-9BB8-A1104A33B162}">
   <dimension ref="A1:E339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1331,7 @@
         <v>46</v>
       </c>
       <c r="E54">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,82 +1348,292 @@
         <v>47</v>
       </c>
       <c r="E55">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>48</v>
+      </c>
+      <c r="E56">
+        <v>50</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>48</v>
+      </c>
+      <c r="E57">
+        <v>50</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>49</v>
+      </c>
+      <c r="E58">
+        <v>50</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>49</v>
+      </c>
+      <c r="E59">
+        <v>50</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1">
+        <v>44465</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <v>50</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>51</v>
+      </c>
+      <c r="E61">
+        <v>57</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>52</v>
+      </c>
+      <c r="E62">
+        <v>57</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>53</v>
+      </c>
+      <c r="E63">
+        <v>57</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>54</v>
+      </c>
+      <c r="E64">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>55</v>
+      </c>
+      <c r="E65">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>56</v>
+      </c>
+      <c r="E66">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>57</v>
+      </c>
+      <c r="E67">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>58</v>
+      </c>
+      <c r="E68">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>59</v>
+      </c>
+      <c r="E69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>60</v>
+      </c>
+      <c r="E70">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">

--- a/activite.xlsx
+++ b/activite.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Desktop\bilative.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Desktop\ok\bilative.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D810E-D140-4D59-9474-4C1AA8931E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10CB0F3-FE6F-46E8-BA8D-AFBB286F792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{71733CB6-199B-45F1-9C5A-449DF013E0E3}"/>
   </bookViews>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FEB2D8-7D0D-4CF5-9BB8-A1104A33B162}">
   <dimension ref="A1:E339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,7 +1569,7 @@
         <v>58</v>
       </c>
       <c r="E68">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>59</v>
       </c>
       <c r="E69">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,14 +1603,42 @@
         <v>60</v>
       </c>
       <c r="E70">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>61</v>
+      </c>
+      <c r="E71">
+        <v>62</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>62</v>
+      </c>
+      <c r="E72">
+        <v>62</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>

--- a/activite.xlsx
+++ b/activite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Desktop\ok\bilative.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Desktop\too\bilative.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10CB0F3-FE6F-46E8-BA8D-AFBB286F792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D239F6-56CF-439C-8A7D-5D4743E76B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{71733CB6-199B-45F1-9C5A-449DF013E0E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71733CB6-199B-45F1-9C5A-449DF013E0E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FEB2D8-7D0D-4CF5-9BB8-A1104A33B162}">
   <dimension ref="A1:E339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,7 +1569,7 @@
         <v>58</v>
       </c>
       <c r="E68">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>59</v>
       </c>
       <c r="E69">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>60</v>
       </c>
       <c r="E70">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>61</v>
       </c>
       <c r="E71">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1637,79 +1637,331 @@
         <v>62</v>
       </c>
       <c r="E72">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>63</v>
+      </c>
+      <c r="E73">
+        <v>64</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>64</v>
+      </c>
+      <c r="E74">
+        <v>64</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>65</v>
+      </c>
+      <c r="E75">
+        <v>70</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>66</v>
+      </c>
+      <c r="E76">
+        <v>70</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>67</v>
+      </c>
+      <c r="E77">
+        <v>70</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>67</v>
+      </c>
+      <c r="E78">
+        <v>70</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>68</v>
+      </c>
+      <c r="E79">
+        <v>70</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>44485</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>69</v>
+      </c>
+      <c r="E80">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>44486</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>70</v>
+      </c>
+      <c r="E81">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>71</v>
+      </c>
+      <c r="E82">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>72</v>
+      </c>
+      <c r="E83">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>73</v>
+      </c>
+      <c r="E84">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>73</v>
+      </c>
+      <c r="E85">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>74</v>
+      </c>
+      <c r="E86">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>44492</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>75</v>
+      </c>
+      <c r="E87">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>44493</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>76</v>
+      </c>
+      <c r="E88">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>76</v>
+      </c>
+      <c r="E89">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>77</v>
+      </c>
+      <c r="E90">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">

--- a/activite.xlsx
+++ b/activite.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Desktop\too\bilative.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bilal\Desktop\gt\bilative.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D239F6-56CF-439C-8A7D-5D4743E76B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601975D3-17FB-49BF-9747-FFD620F5E28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{71733CB6-199B-45F1-9C5A-449DF013E0E3}"/>
   </bookViews>
@@ -405,8 +405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FEB2D8-7D0D-4CF5-9BB8-A1104A33B162}">
   <dimension ref="A1:E339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,7 +1926,7 @@
         <v>76</v>
       </c>
       <c r="E89">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -1943,20 +1943,76 @@
         <v>77</v>
       </c>
       <c r="E90">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>78</v>
+      </c>
+      <c r="E91">
+        <v>81</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>79</v>
+      </c>
+      <c r="E92">
+        <v>81</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>80</v>
+      </c>
+      <c r="E93">
+        <v>81</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>44499</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>81</v>
+      </c>
+      <c r="E94">
+        <v>81</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
